--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19917" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58915" uniqueCount="854">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58915" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79820" uniqueCount="854">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31256,13 +31256,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>88</v>
@@ -31274,10 +31274,10 @@
         <v>88</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>88</v>
@@ -31292,7 +31292,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>88</v>
@@ -31307,7 +31307,7 @@
         <v>88</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>88</v>
@@ -31316,7 +31316,7 @@
         <v>88</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>88</v>
@@ -31328,10 +31328,10 @@
         <v>88</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>88</v>
@@ -31346,7 +31346,7 @@
         <v>88</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>88</v>
@@ -31358,10 +31358,10 @@
         <v>88</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>88</v>
@@ -32553,43 +32553,43 @@
         <v>88</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>88</v>
@@ -32601,7 +32601,7 @@
         <v>88</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>88</v>
@@ -32625,10 +32625,10 @@
         <v>88</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>88</v>
@@ -32637,10 +32637,10 @@
         <v>88</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26">
@@ -32880,73 +32880,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>88</v>
@@ -32958,31 +32958,31 @@
         <v>88</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>88</v>
@@ -34156,115 +34156,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="40">
@@ -34272,115 +34272,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -34388,115 +34388,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>115</v>
+        <v>323</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>115</v>
+        <v>355</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>115</v>
+        <v>410</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>115</v>
+        <v>436</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>115</v>
+        <v>484</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>115</v>
+        <v>510</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>115</v>
+        <v>537</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>115</v>
+        <v>558</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>115</v>
+        <v>579</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>115</v>
+        <v>597</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>115</v>
+        <v>621</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>115</v>
+        <v>636</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>115</v>
+        <v>657</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>115</v>
+        <v>678</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>115</v>
+        <v>699</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>115</v>
+        <v>722</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>115</v>
+        <v>748</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>115</v>
+        <v>771</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>115</v>
+        <v>793</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>115</v>
+        <v>819</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>115</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42">
